--- a/moveOutSalesList.xlsx
+++ b/moveOutSalesList.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="69">
   <si>
     <t>items</t>
   </si>
@@ -212,6 +212,18 @@
   </si>
   <si>
     <t>Desktop computer</t>
+  </si>
+  <si>
+    <t>Complex Geometry</t>
+  </si>
+  <si>
+    <t>Foundations of Differentiable Manifolds and Lie Groups</t>
+  </si>
+  <si>
+    <t>Riemannian Geometry (Do Carmo)</t>
+  </si>
+  <si>
+    <t>Lectures on Differential Geometry</t>
   </si>
 </sst>
 </file>
@@ -683,16 +695,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="50.625" customWidth="1"/>
-    <col min="2" max="3" width="20.625" customWidth="1"/>
+    <col min="2" max="2" width="20.625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="20.625" customWidth="1"/>
     <col min="4" max="4" width="13.625" customWidth="1"/>
     <col min="5" max="5" width="50.625" customWidth="1"/>
   </cols>
@@ -1174,25 +1187,69 @@
       <c r="E38" s="2"/>
     </row>
     <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A39" s="2"/>
+      <c r="A39" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="B39" s="8"/>
-      <c r="C39" s="2"/>
+      <c r="C39" s="12">
+        <v>4</v>
+      </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
+      <c r="A40" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" s="8"/>
+      <c r="C40" s="12">
+        <v>4</v>
+      </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
     </row>
-    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
+    <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41" s="8"/>
+      <c r="C41" s="12">
+        <v>4</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" s="8"/>
+      <c r="C42" s="12">
+        <v>4</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A43" s="2"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="10">
-        <f>SUM(B2:B40)</f>
+      <c r="B45" s="10">
+        <f>SUM(B2:B44)</f>
         <v>968</v>
       </c>
     </row>
@@ -1207,7 +1264,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/moveOutSalesList.xlsx
+++ b/moveOutSalesList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035"/>
   </bookViews>
   <sheets>
     <sheet name="moveOutSalesRecord" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="69">
   <si>
     <t>items</t>
   </si>
@@ -697,15 +697,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="50.625" customWidth="1"/>
-    <col min="2" max="2" width="20.625" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="20.625" customWidth="1"/>
+    <col min="2" max="3" width="20.625" customWidth="1"/>
     <col min="4" max="4" width="13.625" customWidth="1"/>
     <col min="5" max="5" width="50.625" customWidth="1"/>
   </cols>
@@ -1067,15 +1066,17 @@
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="8">
+      <c r="B29" s="15"/>
+      <c r="C29" s="16">
         <v>0</v>
       </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
+      <c r="D29" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="15"/>
     </row>
     <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
@@ -1181,7 +1182,7 @@
         <v>25.5</v>
       </c>
       <c r="C38" s="12">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -1263,8 +1264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
